--- a/Test/MC_Ssf/T1/Sensors_data_1000020.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000020.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2290432231216499</v>
+        <v>0.1786176665617007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02366563031021007</v>
+        <v>0.02521351550367877</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2056929281912184</v>
+        <v>0.2097342690130166</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7508068544862144</v>
+        <v>0.8328414750805786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01144620308525292</v>
+        <v>0.007678102139262741</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0001243257898857486</v>
+        <v>0.0004726591271833058</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.05945868018796308</v>
+        <v>-0.5181359255674918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03678503844948147</v>
+        <v>0.05271058648897159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3048259408147446</v>
+        <v>0.2777110900993684</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.222768018789631</v>
+        <v>-1.262247560848317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0604113663124911</v>
+        <v>0.06148435866121822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2607582186706732</v>
+        <v>0.2840640880978849</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8739484332780076</v>
+        <v>0.8911604707229522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005670065178931106</v>
+        <v>0.004895831452901491</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07145728560556663</v>
+        <v>0.09966338635710321</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
